--- a/progetto/results/randomMergeHeapPython/radixBase400.xlsx
+++ b/progetto/results/randomMergeHeapPython/radixBase400.xlsx
@@ -348,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -364,7 +364,7 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>0.003737926483154297</v>
+        <v>0.003690481185913086</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>1500</v>
       </c>
       <c r="B3">
-        <v>0.007308721542358398</v>
+        <v>0.003824472427368164</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>0.005064725875854492</v>
+        <v>0.005001068115234375</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>2500</v>
       </c>
       <c r="B5">
-        <v>0.00617527961730957</v>
+        <v>0.006447076797485352</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>3000</v>
       </c>
       <c r="B6">
-        <v>0.006939888000488281</v>
+        <v>0.0149681568145752</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>3500</v>
       </c>
       <c r="B7">
-        <v>0.008259057998657227</v>
+        <v>0.01101279258728027</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>4000</v>
       </c>
       <c r="B8">
-        <v>0.009263277053833008</v>
+        <v>0.00973963737487793</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>4500</v>
       </c>
       <c r="B9">
-        <v>0.01027131080627441</v>
+        <v>0.009985685348510742</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>5000</v>
       </c>
       <c r="B10">
-        <v>0.01131176948547363</v>
+        <v>0.01296186447143555</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>5500</v>
       </c>
       <c r="B11">
-        <v>0.01230645179748535</v>
+        <v>0.01278328895568848</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>6000</v>
       </c>
       <c r="B12">
-        <v>0.01327657699584961</v>
+        <v>0.01312518119812012</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>6500</v>
       </c>
       <c r="B13">
-        <v>0.0292060375213623</v>
+        <v>0.01512718200683594</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>7000</v>
       </c>
       <c r="B14">
-        <v>0.01578259468078613</v>
+        <v>0.01543068885803223</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>7500</v>
       </c>
       <c r="B15">
-        <v>0.01695799827575684</v>
+        <v>0.01640033721923828</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>8000</v>
       </c>
       <c r="B16">
-        <v>0.01770591735839844</v>
+        <v>0.02241015434265137</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>8500</v>
       </c>
       <c r="B17">
-        <v>0.01987051963806152</v>
+        <v>0.01942729949951172</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>9000</v>
       </c>
       <c r="B18">
-        <v>0.0195620059967041</v>
+        <v>0.02178621292114257</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>9500</v>
       </c>
       <c r="B19">
-        <v>0.02117562294006348</v>
+        <v>0.0222775936126709</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>10000</v>
       </c>
       <c r="B20">
-        <v>0.02251362800598145</v>
+        <v>0.02353358268737793</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>11000</v>
       </c>
       <c r="B21">
-        <v>0.02387714385986328</v>
+        <v>0.02446651458740234</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>12000</v>
       </c>
       <c r="B22">
-        <v>0.0258791446685791</v>
+        <v>0.02571225166320801</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>13000</v>
       </c>
       <c r="B23">
-        <v>0.03123259544372558</v>
+        <v>0.02765607833862305</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>14000</v>
       </c>
       <c r="B24">
-        <v>0.03293466567993164</v>
+        <v>0.0297088623046875</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>15000</v>
       </c>
       <c r="B25">
-        <v>0.0357968807220459</v>
+        <v>0.0320589542388916</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>16000</v>
       </c>
       <c r="B26">
-        <v>0.0374290943145752</v>
+        <v>0.0339818000793457</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>17000</v>
       </c>
       <c r="B27">
-        <v>0.04799151420593262</v>
+        <v>0.03693938255310058</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>18000</v>
       </c>
       <c r="B28">
-        <v>0.05014467239379883</v>
+        <v>0.03816628456115723</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>19000</v>
       </c>
       <c r="B29">
-        <v>0.04110193252563477</v>
+        <v>0.0408473014831543</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>20000</v>
       </c>
       <c r="B30">
-        <v>0.06414008140563965</v>
+        <v>0.04261374473571777</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>21000</v>
       </c>
       <c r="B31">
-        <v>0.04553842544555664</v>
+        <v>0.04468679428100586</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>22000</v>
       </c>
       <c r="B32">
-        <v>0.04746627807617188</v>
+        <v>0.04684185981750488</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>23000</v>
       </c>
       <c r="B33">
-        <v>0.0498812198638916</v>
+        <v>0.05358290672302246</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>24000</v>
       </c>
       <c r="B34">
-        <v>0.05561566352844238</v>
+        <v>0.05082178115844727</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>25000</v>
       </c>
       <c r="B35">
-        <v>0.07205915451049805</v>
+        <v>0.05251717567443848</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>26000</v>
       </c>
       <c r="B36">
-        <v>0.0555572509765625</v>
+        <v>0.05494785308837891</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>27000</v>
       </c>
       <c r="B37">
-        <v>0.06594467163085938</v>
+        <v>0.05724620819091798</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>28000</v>
       </c>
       <c r="B38">
-        <v>0.06644177436828612</v>
+        <v>0.06028461456298827</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>29000</v>
       </c>
       <c r="B39">
-        <v>0.1063313484191894</v>
+        <v>0.06127738952636719</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>30000</v>
       </c>
       <c r="B40">
-        <v>0.1265323162078857</v>
+        <v>0.06360006332397461</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>31000</v>
       </c>
       <c r="B41">
-        <v>0.06801986694335938</v>
+        <v>0.06528592109680176</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>32000</v>
       </c>
       <c r="B42">
-        <v>0.07170772552490234</v>
+        <v>0.07125353813171388</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>33000</v>
       </c>
       <c r="B43">
-        <v>0.07331967353820801</v>
+        <v>0.07076358795166016</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>34000</v>
       </c>
       <c r="B44">
-        <v>0.1303789615631104</v>
+        <v>0.07875967025756836</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>35000</v>
       </c>
       <c r="B45">
-        <v>0.07786035537719728</v>
+        <v>0.0765388011932373</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>36000</v>
       </c>
       <c r="B46">
-        <v>0.08000874519348145</v>
+        <v>0.07843708992004395</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>37000</v>
       </c>
       <c r="B47">
-        <v>0.07870149612426758</v>
+        <v>0.07803201675415039</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>38000</v>
       </c>
       <c r="B48">
-        <v>0.08421921730041504</v>
+        <v>0.08019828796386719</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>39000</v>
       </c>
       <c r="B49">
-        <v>0.08399152755737305</v>
+        <v>0.08299398422241211</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>40000</v>
       </c>
       <c r="B50">
-        <v>0.08872771263122559</v>
+        <v>0.08496332168579103</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>41000</v>
       </c>
       <c r="B51">
-        <v>0.08836913108825684</v>
+        <v>0.08644199371337891</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42000</v>
       </c>
       <c r="B52">
-        <v>0.09058403968811037</v>
+        <v>0.0890355110168457</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>43000</v>
       </c>
       <c r="B53">
-        <v>0.09319043159484863</v>
+        <v>0.09160280227661133</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>44000</v>
       </c>
       <c r="B54">
-        <v>0.09548425674438477</v>
+        <v>0.09463977813720703</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>45000</v>
       </c>
       <c r="B55">
-        <v>0.1003351211547852</v>
+        <v>0.09512448310852052</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>46000</v>
       </c>
       <c r="B56">
-        <v>0.1006276607513428</v>
+        <v>0.1004822254180908</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>47000</v>
       </c>
       <c r="B57">
-        <v>0.1020522117614746</v>
+        <v>0.1011385917663574</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>48000</v>
       </c>
       <c r="B58">
-        <v>0.104083776473999</v>
+        <v>0.1042695045471191</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>49000</v>
       </c>
       <c r="B59">
-        <v>0.1071376800537109</v>
+        <v>0.1051149368286133</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>50000</v>
       </c>
       <c r="B60">
-        <v>0.1090044975280762</v>
+        <v>0.1085708141326904</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>55000</v>
       </c>
       <c r="B61">
-        <v>0.1205618381500244</v>
+        <v>0.1177146434783936</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>60000</v>
       </c>
       <c r="B62">
-        <v>0.13555908203125</v>
+        <v>0.1316018104553223</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>65000</v>
       </c>
       <c r="B63">
-        <v>0.1462252140045166</v>
+        <v>0.1401576995849609</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>70000</v>
       </c>
       <c r="B64">
-        <v>0.1591589450836181</v>
+        <v>0.1565351486206055</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>75000</v>
       </c>
       <c r="B65">
-        <v>0.171184778213501</v>
+        <v>0.1637136936187744</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>80000</v>
       </c>
       <c r="B66">
-        <v>0.1907501220703125</v>
+        <v>0.1754863262176513</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>85000</v>
       </c>
       <c r="B67">
-        <v>0.1920211315155029</v>
+        <v>0.1894729137420655</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>90000</v>
       </c>
       <c r="B68">
-        <v>0.2048695087432861</v>
+        <v>0.1992459297180176</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,15 +900,7 @@
         <v>95000</v>
       </c>
       <c r="B69">
-        <v>0.2215654850006104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>100000</v>
-      </c>
-      <c r="B70">
-        <v>0.2265548706054688</v>
+        <v>0.2141182422637939</v>
       </c>
     </row>
   </sheetData>
